--- a/maven-generate-plugin/src/main/resources/excel_service_template.xlsx
+++ b/maven-generate-plugin/src/main/resources/excel_service_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\smartcolud\材料文档\1. 设计及部署开发手册\其他文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\maven-generate-plugin-admin\maven-generate-plugin\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0578151-D978-4AB0-B56F-D821C9B7F28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79425446-080E-4EF4-9E0B-7A33C95F95AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录_FSB" sheetId="1" r:id="rId1"/>
@@ -924,16 +924,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,20 +1223,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="64.95" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
@@ -1292,8 +1292,8 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1623,7 +1623,7 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1745,26 +1745,26 @@
       <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="14.4">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="14.4">
       <c r="A6" s="7" t="s">
@@ -1817,24 +1817,24 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.4">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:17" ht="14.4">
       <c r="A8" s="8" t="s">
@@ -2170,7 +2170,7 @@
       <c r="E14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="14" t="s">
         <v>174</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -2276,7 +2276,7 @@
       <c r="E16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="14" t="s">
         <v>175</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2314,24 +2314,24 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="14.4">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="14.4">
       <c r="A18" s="8" t="s">
@@ -2759,18 +2759,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="A7:P7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="K3:P3"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="A7:P7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
